--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -498,7 +498,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -506,34 +506,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.64453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3719,273 +3720,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE5D6F98-42CF-4DFA-9674-95A993DC5C7E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B393A3C6-8DF5-4E14-BC18-F37000F279D9}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B39DC0-A3EC-4BEC-8D39-CFCB1D67DEEA}"/>
 </file>
--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -320,7 +320,7 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Consenso madre</t>
+    <t>Atto Consenso Madre</t>
   </si>
   <si>
     <t>Id atto</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -320,82 +320,85 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
+    <t>Atto Consenso</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.atto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Presentazione documenti</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre</t>
+  </si>
+  <si>
     <t>Atto Consenso Madre</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.atto</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Presentazione documenti</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre</t>
   </si>
   <si>
     <t>evento.consensoMadre.altroUfficiale</t>
@@ -2639,7 +2642,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>87</v>
@@ -2648,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>89</v>
@@ -2659,7 +2662,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>90</v>
@@ -2668,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>91</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>92</v>
@@ -2688,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>93</v>
@@ -2699,7 +2702,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>94</v>
@@ -2708,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>95</v>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>96</v>
@@ -2728,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>97</v>
@@ -2739,7 +2742,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>98</v>
@@ -2748,7 +2751,7 @@
         <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>99</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>100</v>
@@ -2768,7 +2771,7 @@
         <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>101</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>87</v>
@@ -2788,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>89</v>
@@ -2799,7 +2802,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>90</v>
@@ -2808,7 +2811,7 @@
         <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>91</v>
@@ -2819,7 +2822,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>92</v>
@@ -2828,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>93</v>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>94</v>
@@ -2848,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>95</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>96</v>
@@ -2868,7 +2871,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>97</v>
@@ -2879,7 +2882,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>98</v>
@@ -2888,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>99</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>100</v>
@@ -2908,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>101</v>
@@ -2919,19 +2922,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -2939,7 +2942,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>103</v>
@@ -2948,7 +2951,7 @@
         <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>105</v>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>106</v>
@@ -2968,7 +2971,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>107</v>
@@ -2979,7 +2982,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>108</v>
@@ -2988,7 +2991,7 @@
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>109</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>110</v>
@@ -3008,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>111</v>
@@ -3019,7 +3022,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>112</v>
@@ -3028,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>113</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>114</v>
@@ -3048,7 +3051,7 @@
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>115</v>
@@ -3059,7 +3062,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>116</v>
@@ -3068,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>25</v>
@@ -3079,7 +3082,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>117</v>
@@ -3088,7 +3091,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>118</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>119</v>
@@ -3108,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>27</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>120</v>
@@ -3128,7 +3131,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>121</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>122</v>
@@ -3148,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>123</v>
@@ -3159,7 +3162,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>124</v>
@@ -3168,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>125</v>
@@ -3179,7 +3182,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>34</v>
@@ -3188,18 +3191,18 @@
         <v>11</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>37</v>
@@ -3208,18 +3211,18 @@
         <v>11</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>39</v>
@@ -3228,18 +3231,18 @@
         <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>41</v>
@@ -3248,18 +3251,18 @@
         <v>11</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>43</v>
@@ -3268,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>44</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>45</v>
@@ -3288,18 +3291,18 @@
         <v>11</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>47</v>
@@ -3308,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>48</v>
@@ -3319,7 +3322,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>49</v>
@@ -3328,18 +3331,18 @@
         <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>51</v>
@@ -3348,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>52</v>
@@ -3359,7 +3362,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>53</v>
@@ -3368,18 +3371,18 @@
         <v>11</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>55</v>
@@ -3388,7 +3391,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>56</v>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>57</v>
@@ -3408,18 +3411,18 @@
         <v>11</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>59</v>
@@ -3428,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>60</v>
@@ -3439,7 +3442,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>61</v>
@@ -3448,18 +3451,18 @@
         <v>11</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>63</v>
@@ -3468,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>64</v>
@@ -3479,7 +3482,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>65</v>
@@ -3488,18 +3491,18 @@
         <v>11</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>67</v>
@@ -3508,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>68</v>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>69</v>
@@ -3528,18 +3531,18 @@
         <v>11</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>71</v>
@@ -3548,18 +3551,18 @@
         <v>11</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>73</v>
@@ -3568,18 +3571,18 @@
         <v>11</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>75</v>
@@ -3588,18 +3591,18 @@
         <v>11</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>77</v>
@@ -3608,30 +3611,30 @@
         <v>11</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3639,19 +3642,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>17</v>
@@ -3659,10 +3662,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
@@ -3671,7 +3674,7 @@
         <v>24</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3679,10 +3682,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
@@ -3691,7 +3694,7 @@
         <v>24</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -3699,10 +3702,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
@@ -3711,7 +3714,7 @@
         <v>127</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -284,6 +290,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.sentenzaFiglioIncestuoso,=,false}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,2}</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -404,12 +416,18 @@
     <t>evento.consensoMadre.altroUfficiale</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,3}</t>
+  </si>
+  <si>
     <t>Sentenza di consenso</t>
   </si>
   <si>
     <t>evento.consensoMadre.sentenzaTribunale</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,4}</t>
+  </si>
+  <si>
     <t>Atto riconoscimento materno</t>
   </si>
   <si>
@@ -432,6 +450,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -526,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -538,6 +559,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="40.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -559,225 +581,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -799,2925 +857,3366 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -858,3365 +861,3365 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -293,7 +296,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.sentenzaFiglioIncestuoso,=,false}</t>
+    <t>evento.sentenzaFiglioIncestuoso,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -344,7 +347,7 @@
     <t>idAnsc</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,2}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -419,7 +422,7 @@
     <t>evento.consensoMadre.altroUfficiale</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,3}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
   </si>
   <si>
     <t>Sentenza di consenso</t>
@@ -428,7 +431,7 @@
     <t>evento.consensoMadre.sentenzaTribunale</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,4}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
   </si>
   <si>
     <t>Atto riconoscimento materno</t>
@@ -455,7 +458,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -550,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -562,7 +565,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="40.30078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="38.9140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -682,13 +685,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -705,13 +708,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -728,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -751,7 +754,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -774,7 +777,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -797,7 +800,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -820,7 +823,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -842,2009 +845,2009 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>122</v>
@@ -2853,44 +2856,44 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>125</v>
@@ -2899,596 +2902,596 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>122</v>
@@ -3497,44 +3500,44 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>125</v>
@@ -3543,683 +3546,706 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>28</v>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -191,6 +191,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -392,22 +398,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Presentazione documenti</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1536,22 +1542,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>29</v>
@@ -1559,22 +1565,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2051,19 @@
         <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>29</v>
@@ -2068,7 +2074,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2077,7 +2083,7 @@
         <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,22 +2094,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>29</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,22 +2209,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,22 +2301,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>29</v>
@@ -2318,22 +2324,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,22 +2393,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>29</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,22 +2439,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,22 +2508,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>29</v>
@@ -2525,22 +2531,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>29</v>
@@ -2551,22 +2557,22 @@
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -2574,22 +2580,22 @@
         <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -2597,467 +2603,467 @@
         <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -3066,343 +3072,343 @@
         <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3411,7 +3417,7 @@
         <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3428,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3451,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,19 +3474,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3491,19 +3497,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,19 +3520,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3537,19 +3543,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3560,19 +3566,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3583,22 +3589,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>29</v>
@@ -3606,22 +3612,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>29</v>
@@ -3629,10 +3635,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
@@ -3641,44 +3647,44 @@
         <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3687,564 +3693,656 @@
         <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -464,7 +464,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -571,7 +574,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="38.9140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4213,7 +4216,7 @@
         <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4233,19 +4236,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4256,19 +4259,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>19</v>
@@ -4279,10 +4282,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4291,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4302,10 +4305,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4314,7 +4317,7 @@
         <v>27</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4325,10 +4328,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4337,7 +4340,7 @@
         <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4216,7 +4213,7 @@
         <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4236,19 +4233,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4259,19 +4256,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>19</v>
@@ -4282,10 +4279,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4294,7 +4291,7 @@
         <v>27</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4305,10 +4302,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4317,7 +4314,7 @@
         <v>27</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4328,10 +4325,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4340,7 +4337,7 @@
         <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4213,7 +4216,7 @@
         <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4233,19 +4236,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4256,19 +4259,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>19</v>
@@ -4279,10 +4282,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4291,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4302,10 +4305,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4314,7 +4317,7 @@
         <v>27</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4325,10 +4328,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4337,7 +4340,7 @@
         <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -562,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,7 +602,7 @@
     <col min="2" max="2" width="59.06640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2097,22 +2127,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>29</v>
@@ -2120,19 +2150,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2173,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2196,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2219,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2212,22 +2242,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
@@ -2235,19 +2265,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2258,22 +2288,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>29</v>
@@ -2281,19 +2311,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,22 +2334,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>29</v>
@@ -2327,22 +2357,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
@@ -2350,19 +2380,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2373,22 +2403,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
@@ -2396,19 +2426,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2419,22 +2449,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>29</v>
@@ -2442,22 +2472,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
@@ -2465,22 +2495,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>29</v>
@@ -2488,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,22 +2541,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>29</v>
@@ -2534,22 +2564,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>29</v>
@@ -2557,19 +2587,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,22 +2610,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>29</v>
@@ -2603,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,1034 +2656,1034 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>29</v>
@@ -3661,22 +3691,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>29</v>
@@ -3684,19 +3714,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3707,645 +3737,875 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -143,6 +143,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -197,13 +203,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1598,22 +1604,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -1621,22 +1627,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>29</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2242,22 +2248,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2288,22 +2294,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>29</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2403,22 +2409,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,22 +2455,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>29</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,22 +2524,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>29</v>
@@ -2541,22 +2547,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>29</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2610,22 +2616,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>29</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,22 +2662,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>29</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,22 +2731,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>29</v>
@@ -2748,22 +2754,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,22 +2800,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>29</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,22 +2846,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>17</v>
@@ -2889,22 +2895,22 @@
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -2912,22 +2918,22 @@
         <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -2935,467 +2941,467 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
@@ -3404,343 +3410,343 @@
         <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3749,7 +3755,7 @@
         <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3760,19 +3766,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3783,19 +3789,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3806,19 +3812,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3829,19 +3835,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3852,19 +3858,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3875,19 +3881,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3898,22 +3904,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>29</v>
@@ -3921,22 +3927,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>29</v>
@@ -3944,19 +3950,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3967,10 +3973,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
@@ -3979,44 +3985,44 @@
         <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4025,587 +4031,679 @@
         <v>158</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,10 +56,13 @@
     <t>Copia dell'atto di consenso dell'altro genitore</t>
   </si>
   <si>
-    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
+    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
   </si>
   <si>
     <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante lo stato di gravidanza</t>
   </si>
   <si>
     <t>Formula</t>
@@ -598,14 +601,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="30.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -753,13 +756,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -776,13 +779,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -799,7 +802,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -845,7 +848,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -868,7 +871,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -891,7 +894,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -913,2377 +916,2377 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>137</v>
@@ -3292,642 +3295,642 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>137</v>
@@ -3936,775 +3939,798 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F161" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>29</v>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -601,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1653,22 +1659,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -1676,22 +1682,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1728,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1774,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,22 +2326,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,22 +2372,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,22 +2510,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>18</v>
@@ -2573,22 +2579,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2596,22 +2602,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2619,22 +2625,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,22 +2694,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2711,22 +2717,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>30</v>
@@ -2734,22 +2740,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2757,22 +2763,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,22 +2832,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2849,22 +2855,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2872,19 +2878,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,22 +2901,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2918,19 +2924,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,22 +2947,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -2964,19 +2970,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
@@ -2990,22 +2996,22 @@
         <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
@@ -3013,22 +3019,22 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
@@ -3036,467 +3042,467 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -3505,343 +3511,343 @@
         <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3850,7 +3856,7 @@
         <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3861,19 +3867,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3884,19 +3890,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3907,19 +3913,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3930,19 +3936,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3953,19 +3959,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3976,19 +3982,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3999,22 +4005,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>30</v>
@@ -4022,22 +4028,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>30</v>
@@ -4045,19 +4051,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4068,10 +4074,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
@@ -4080,656 +4086,748 @@
         <v>161</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G174" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -607,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1682,22 +1688,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1705,22 +1711,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>30</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1918,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1941,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,22 +2378,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,22 +2424,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>30</v>
@@ -2441,19 +2447,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,22 +2562,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>18</v>
@@ -2625,22 +2631,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2648,22 +2654,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2671,22 +2677,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2694,22 +2700,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2717,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>18</v>
@@ -2763,22 +2769,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2786,22 +2792,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>30</v>
@@ -2809,22 +2815,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2832,22 +2838,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
@@ -2878,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2901,22 +2907,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2924,22 +2930,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2947,19 +2953,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2970,22 +2976,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -2993,19 +2999,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3016,22 +3022,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
@@ -3065,22 +3071,22 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -3088,22 +3094,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
@@ -3111,467 +3117,467 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
@@ -3580,343 +3586,343 @@
         <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3925,7 +3931,7 @@
         <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3936,19 +3942,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3959,19 +3965,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3982,19 +3988,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4005,19 +4011,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4028,19 +4034,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4051,19 +4057,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4074,22 +4080,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>30</v>
@@ -4097,22 +4103,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>30</v>
@@ -4120,19 +4126,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4143,10 +4149,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -4155,679 +4161,771 @@
         <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G178" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -613,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3557,7 +3563,7 @@
         <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>128</v>
@@ -3566,7 +3572,7 @@
         <v>150</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>130</v>
@@ -3580,13 +3586,13 @@
         <v>151</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3597,10 +3603,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -3609,352 +3615,352 @@
         <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3965,19 +3971,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3988,19 +3994,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4011,19 +4017,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4057,19 +4063,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4080,19 +4086,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4103,19 +4109,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4126,19 +4132,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4149,22 +4155,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>30</v>
@@ -4172,19 +4178,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>18</v>
@@ -4195,22 +4201,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>30</v>
@@ -4218,10 +4224,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -4230,21 +4236,21 @@
         <v>165</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4253,628 +4259,628 @@
         <v>165</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4885,22 +4891,22 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>30</v>
@@ -4908,24 +4914,70 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E187" s="2" t="s">
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -4552,7 +4552,7 @@
         <v>64</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>167</v>
@@ -4575,7 +4575,7 @@
         <v>66</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>167</v>
@@ -4584,7 +4584,7 @@
         <v>67</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>169</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -619,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1694,19 +1706,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1717,22 +1729,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>30</v>
@@ -1740,19 +1752,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1763,22 +1775,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -1786,19 +1798,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1821,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1844,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1867,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1890,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1913,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1936,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1959,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1982,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1993,19 +2005,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2028,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2051,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2074,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2097,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2120,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2143,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2166,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2189,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2212,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2235,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2258,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2281,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2304,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2327,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2350,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2373,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2396,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2419,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2430,22 +2442,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>30</v>
@@ -2453,19 +2465,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2488,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2511,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2522,22 +2534,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
@@ -2545,19 +2557,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2580,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2603,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2614,22 +2626,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2637,22 +2649,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2660,22 +2672,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2683,22 +2695,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2706,19 +2718,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2741,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2764,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>18</v>
@@ -2775,22 +2787,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2798,22 +2810,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>30</v>
@@ -2821,19 +2833,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>18</v>
@@ -2844,19 +2856,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2867,22 +2879,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2890,22 +2902,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2913,19 +2925,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -2936,22 +2948,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2959,22 +2971,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -2982,19 +2994,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3005,22 +3017,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3028,19 +3040,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3063,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
@@ -3074,22 +3086,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3097,22 +3109,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3120,22 +3132,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3143,962 +3155,962 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4109,19 +4121,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4132,19 +4144,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4155,19 +4167,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4178,22 +4190,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>30</v>
@@ -4201,22 +4213,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>30</v>
@@ -4224,22 +4236,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>30</v>
@@ -4247,19 +4259,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4270,714 +4282,898 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -317,6 +317,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -534,9 +537,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2399,10 +2399,10 @@
         <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>100</v>
@@ -2422,7 +2422,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -2431,7 +2431,7 @@
         <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2445,7 +2445,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -2454,7 +2454,7 @@
         <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2468,7 +2468,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2477,7 +2477,7 @@
         <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2491,7 +2491,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2500,7 +2500,7 @@
         <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2523,7 +2523,7 @@
         <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>39</v>
@@ -2543,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>41</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>42</v>
@@ -2566,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>43</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>44</v>
@@ -2589,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>45</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>46</v>
@@ -2612,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>47</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>48</v>
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>49</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>50</v>
@@ -2658,7 +2658,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>51</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>52</v>
@@ -2681,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>53</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>54</v>
@@ -2704,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>55</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>56</v>
@@ -2727,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>57</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>58</v>
@@ -2750,7 +2750,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>59</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>60</v>
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>61</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>62</v>
@@ -2796,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>63</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>64</v>
@@ -2819,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>65</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>66</v>
@@ -2842,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>67</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>68</v>
@@ -2865,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>69</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>70</v>
@@ -2888,7 +2888,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>71</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>72</v>
@@ -2911,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>73</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>74</v>
@@ -2934,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>75</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>76</v>
@@ -2957,7 +2957,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>77</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>78</v>
@@ -2980,7 +2980,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>79</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>80</v>
@@ -3003,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>81</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>82</v>
@@ -3026,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>83</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>84</v>
@@ -3049,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>85</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>86</v>
@@ -3072,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>87</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>88</v>
@@ -3095,7 +3095,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>89</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>90</v>
@@ -3118,7 +3118,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>91</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>92</v>
@@ -3141,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>93</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>94</v>
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>95</v>
@@ -3178,19 +3178,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3201,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>18</v>
@@ -3224,19 +3224,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3247,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>18</v>
@@ -3270,19 +3270,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>18</v>
@@ -3293,315 +3293,315 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>29</v>
@@ -3610,44 +3610,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>32</v>
@@ -3656,113 +3656,113 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>98</v>
@@ -3771,346 +3771,346 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4121,19 +4121,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4144,19 +4144,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4167,19 +4167,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4190,19 +4190,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4213,19 +4213,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4236,19 +4236,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4259,16 +4259,16 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>29</v>
@@ -4282,19 +4282,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4305,16 +4305,16 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>32</v>
@@ -4328,19 +4328,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>18</v>
@@ -4351,19 +4351,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>18</v>
@@ -4374,19 +4374,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
@@ -4397,19 +4397,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>39</v>
@@ -4429,21 +4429,21 @@
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>42</v>
@@ -4452,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>43</v>
@@ -4461,12 +4461,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>44</v>
@@ -4475,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>45</v>
@@ -4484,12 +4484,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>46</v>
@@ -4498,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>47</v>
@@ -4507,12 +4507,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>48</v>
@@ -4521,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>49</v>
@@ -4530,12 +4530,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>50</v>
@@ -4544,21 +4544,21 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>52</v>
@@ -4567,7 +4567,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>53</v>
@@ -4576,12 +4576,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>54</v>
@@ -4590,7 +4590,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>55</v>
@@ -4599,12 +4599,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>56</v>
@@ -4613,7 +4613,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>57</v>
@@ -4622,12 +4622,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>58</v>
@@ -4636,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>59</v>
@@ -4645,12 +4645,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>60</v>
@@ -4659,21 +4659,21 @@
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>62</v>
@@ -4682,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>63</v>
@@ -4691,12 +4691,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>64</v>
@@ -4705,21 +4705,21 @@
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>66</v>
@@ -4728,21 +4728,21 @@
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>68</v>
@@ -4751,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>69</v>
@@ -4760,12 +4760,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>70</v>
@@ -4774,21 +4774,21 @@
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>72</v>
@@ -4797,21 +4797,21 @@
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>74</v>
@@ -4820,21 +4820,21 @@
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>76</v>
@@ -4843,7 +4843,7 @@
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>77</v>
@@ -4852,12 +4852,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>78</v>
@@ -4866,21 +4866,21 @@
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>80</v>
@@ -4889,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>81</v>
@@ -4898,12 +4898,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>82</v>
@@ -4912,21 +4912,21 @@
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>84</v>
@@ -4935,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>85</v>
@@ -4944,12 +4944,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>86</v>
@@ -4958,21 +4958,21 @@
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>88</v>
@@ -4981,21 +4981,21 @@
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>90</v>
@@ -5004,7 +5004,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>91</v>
@@ -5013,12 +5013,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>92</v>
@@ -5027,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>93</v>
@@ -5036,21 +5036,21 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>95</v>
@@ -5059,7 +5059,7 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
@@ -5165,7 +5165,7 @@
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>186</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_001.xlsx
@@ -41,34 +41,34 @@
     <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante lo stato di gravidanza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
-  </si>
-  <si>
-    <t>Autorizzazione del tribunale</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante lo stato di gravidanza</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114</t>
   </si>
   <si>
     <t>194</t>
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -720,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -743,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -766,10 +766,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -789,10 +789,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -855,13 +855,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -901,13 +901,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -924,13 +924,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -999,7 +999,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -1022,7 +1022,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -1045,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1068,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -1091,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -1114,7 +1114,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
@@ -1137,7 +1137,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>40</v>
@@ -1160,7 +1160,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -1183,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
@@ -1206,7 +1206,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>40</v>
@@ -1229,7 +1229,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>40</v>
@@ -1252,7 +1252,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -1275,7 +1275,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>40</v>
@@ -1298,7 +1298,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>40</v>
@@ -1321,7 +1321,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>40</v>
@@ -1344,7 +1344,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>40</v>
@@ -1367,7 +1367,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>40</v>
@@ -1390,7 +1390,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>40</v>
@@ -1413,7 +1413,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>40</v>
@@ -1436,7 +1436,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>40</v>
@@ -1459,7 +1459,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>40</v>
@@ -1482,7 +1482,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>40</v>
@@ -1505,7 +1505,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>40</v>
@@ -1528,7 +1528,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>40</v>
@@ -1551,7 +1551,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>40</v>
@@ -1574,7 +1574,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>40</v>
@@ -1597,7 +1597,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>40</v>
@@ -1620,7 +1620,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>40</v>
@@ -1643,7 +1643,7 @@
         <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>40</v>
@@ -1666,7 +1666,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>40</v>
@@ -1689,7 +1689,7 @@
         <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>40</v>
@@ -1712,7 +1712,7 @@
         <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>40</v>
@@ -1735,7 +1735,7 @@
         <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>40</v>
@@ -1758,7 +1758,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>28</v>
@@ -1781,7 +1781,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>100</v>
@@ -1790,7 +1790,7 @@
         <v>41</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -1804,7 +1804,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>100</v>
@@ -1827,7 +1827,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>100</v>
@@ -1850,7 +1850,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>100</v>
@@ -1873,7 +1873,7 @@
         <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>100</v>
@@ -1896,7 +1896,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>100</v>
@@ -1919,7 +1919,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>100</v>
@@ -1942,7 +1942,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>100</v>
@@ -1965,7 +1965,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>100</v>
@@ -1988,7 +1988,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>100</v>
@@ -2011,7 +2011,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>100</v>
@@ -2034,7 +2034,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>100</v>
@@ -2057,7 +2057,7 @@
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>100</v>
@@ -2080,7 +2080,7 @@
         <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>100</v>
@@ -2103,7 +2103,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>100</v>
@@ -2126,7 +2126,7 @@
         <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>100</v>
@@ -2149,7 +2149,7 @@
         <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>100</v>
@@ -2172,7 +2172,7 @@
         <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>100</v>
@@ -2195,7 +2195,7 @@
         <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>100</v>
@@ -2218,7 +2218,7 @@
         <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>100</v>
@@ -2241,7 +2241,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>100</v>
@@ -2264,7 +2264,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>100</v>
@@ -2287,7 +2287,7 @@
         <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>100</v>
@@ -2310,7 +2310,7 @@
         <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>100</v>
@@ -2333,7 +2333,7 @@
         <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>100</v>
@@ -2356,7 +2356,7 @@
         <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>100</v>
@@ -2379,7 +2379,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>100</v>
@@ -2402,7 +2402,7 @@
         <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>100</v>
@@ -2425,7 +2425,7 @@
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>100</v>
@@ -2448,7 +2448,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>100</v>
@@ -2471,7 +2471,7 @@
         <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>100</v>
@@ -2494,7 +2494,7 @@
         <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>100</v>
@@ -2517,7 +2517,7 @@
         <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>100</v>
@@ -2540,7 +2540,7 @@
         <v>39</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>113</v>
@@ -2549,7 +2549,7 @@
         <v>41</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
@@ -2563,7 +2563,7 @@
         <v>42</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>113</v>
@@ -2586,7 +2586,7 @@
         <v>44</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>113</v>
@@ -2609,7 +2609,7 @@
         <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>113</v>
@@ -2632,7 +2632,7 @@
         <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>113</v>
@@ -2655,7 +2655,7 @@
         <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>113</v>
@@ -2664,7 +2664,7 @@
         <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2678,7 +2678,7 @@
         <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>113</v>
@@ -2701,7 +2701,7 @@
         <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>113</v>
@@ -2724,7 +2724,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>113</v>
@@ -2747,7 +2747,7 @@
         <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>113</v>
@@ -2770,7 +2770,7 @@
         <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>113</v>
@@ -2779,7 +2779,7 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2793,7 +2793,7 @@
         <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>113</v>
@@ -2816,7 +2816,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>113</v>
@@ -2825,7 +2825,7 @@
         <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>30</v>
@@ -2839,7 +2839,7 @@
         <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>113</v>
@@ -2848,7 +2848,7 @@
         <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2862,7 +2862,7 @@
         <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>113</v>
@@ -2885,7 +2885,7 @@
         <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>113</v>
@@ -2908,7 +2908,7 @@
         <v>72</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>113</v>
@@ -2917,7 +2917,7 @@
         <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2931,7 +2931,7 @@
         <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>113</v>
@@ -2940,7 +2940,7 @@
         <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2954,7 +2954,7 @@
         <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>113</v>
@@ -2977,7 +2977,7 @@
         <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>113</v>
@@ -2986,7 +2986,7 @@
         <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -3000,7 +3000,7 @@
         <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>113</v>
@@ -3023,7 +3023,7 @@
         <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>113</v>
@@ -3032,7 +3032,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3046,7 +3046,7 @@
         <v>84</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>113</v>
@@ -3069,7 +3069,7 @@
         <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>113</v>
@@ -3078,7 +3078,7 @@
         <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3092,7 +3092,7 @@
         <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>113</v>
@@ -3101,7 +3101,7 @@
         <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3115,7 +3115,7 @@
         <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>113</v>
@@ -3138,7 +3138,7 @@
         <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>113</v>
@@ -3161,7 +3161,7 @@
         <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>113</v>
@@ -3184,7 +3184,7 @@
         <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>113</v>
@@ -3207,7 +3207,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>113</v>
@@ -3216,7 +3216,7 @@
         <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>30</v>
@@ -3230,7 +3230,7 @@
         <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>113</v>
@@ -3253,7 +3253,7 @@
         <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>113</v>
@@ -3262,7 +3262,7 @@
         <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3276,7 +3276,7 @@
         <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>113</v>
@@ -3285,7 +3285,7 @@
         <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>30</v>
@@ -3299,7 +3299,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>116</v>
@@ -3322,7 +3322,7 @@
         <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>116</v>
@@ -3345,7 +3345,7 @@
         <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>116</v>
@@ -3368,7 +3368,7 @@
         <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>116</v>
@@ -3391,7 +3391,7 @@
         <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>116</v>
@@ -3414,7 +3414,7 @@
         <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>116</v>
@@ -3437,7 +3437,7 @@
         <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>116</v>
@@ -3460,7 +3460,7 @@
         <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>133</v>
@@ -3483,7 +3483,7 @@
         <v>136</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>133</v>
@@ -3506,7 +3506,7 @@
         <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>133</v>
@@ -3529,7 +3529,7 @@
         <v>140</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>133</v>
@@ -3552,7 +3552,7 @@
         <v>142</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>133</v>
@@ -3575,7 +3575,7 @@
         <v>144</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>133</v>
@@ -3598,7 +3598,7 @@
         <v>146</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>133</v>
@@ -3621,7 +3621,7 @@
         <v>147</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>133</v>
@@ -3644,7 +3644,7 @@
         <v>149</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>133</v>
@@ -3667,7 +3667,7 @@
         <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>133</v>
@@ -3676,7 +3676,7 @@
         <v>151</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>135</v>
@@ -3690,7 +3690,7 @@
         <v>152</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>133</v>
@@ -3699,7 +3699,7 @@
         <v>153</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>135</v>
@@ -3713,7 +3713,7 @@
         <v>154</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>133</v>
@@ -3722,7 +3722,7 @@
         <v>155</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>135</v>
@@ -3736,7 +3736,7 @@
         <v>156</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>133</v>
@@ -3759,7 +3759,7 @@
         <v>158</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>159</v>
@@ -3782,7 +3782,7 @@
         <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>161</v>
@@ -3791,7 +3791,7 @@
         <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>162</v>
@@ -3805,7 +3805,7 @@
         <v>119</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>161</v>
@@ -3814,7 +3814,7 @@
         <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>162</v>
@@ -3828,7 +3828,7 @@
         <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>161</v>
@@ -3837,7 +3837,7 @@
         <v>122</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>162</v>
@@ -3851,7 +3851,7 @@
         <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>161</v>
@@ -3874,7 +3874,7 @@
         <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>161</v>
@@ -3883,7 +3883,7 @@
         <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>162</v>
@@ -3897,7 +3897,7 @@
         <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>161</v>
@@ -3920,7 +3920,7 @@
         <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>161</v>
@@ -3929,7 +3929,7 @@
         <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>162</v>
@@ -3943,7 +3943,7 @@
         <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>164</v>
@@ -3952,7 +3952,7 @@
         <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>165</v>
@@ -3966,7 +3966,7 @@
         <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>164</v>
@@ -3975,7 +3975,7 @@
         <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>165</v>
@@ -3989,7 +3989,7 @@
         <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>164</v>
@@ -3998,7 +3998,7 @@
         <v>122</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>165</v>
@@ -4012,7 +4012,7 @@
         <v>123</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>164</v>
@@ -4035,7 +4035,7 @@
         <v>125</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>164</v>
@@ -4044,7 +4044,7 @@
         <v>126</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>165</v>
@@ -4058,7 +4058,7 @@
         <v>127</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>164</v>
@@ -4081,7 +4081,7 @@
         <v>129</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>164</v>
@@ -4090,7 +4090,7 @@
         <v>130</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>165</v>
@@ -4104,7 +4104,7 @@
         <v>167</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>168</v>
@@ -4127,7 +4127,7 @@
         <v>132</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>170</v>
@@ -4150,7 +4150,7 @@
         <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>170</v>
@@ -4173,7 +4173,7 @@
         <v>138</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>170</v>
@@ -4196,7 +4196,7 @@
         <v>140</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>170</v>
@@ -4219,7 +4219,7 @@
         <v>142</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>170</v>
@@ -4242,7 +4242,7 @@
         <v>144</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>170</v>
@@ -4265,7 +4265,7 @@
         <v>146</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>170</v>
@@ -4288,7 +4288,7 @@
         <v>147</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>170</v>
@@ -4311,7 +4311,7 @@
         <v>149</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>170</v>
@@ -4334,7 +4334,7 @@
         <v>150</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>170</v>
@@ -4343,7 +4343,7 @@
         <v>151</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>152</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>170</v>
@@ -4366,7 +4366,7 @@
         <v>153</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>30</v>
@@ -4380,7 +4380,7 @@
         <v>154</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>170</v>
@@ -4389,7 +4389,7 @@
         <v>155</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>30</v>
@@ -4403,7 +4403,7 @@
         <v>156</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>39</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>172</v>
@@ -4449,7 +4449,7 @@
         <v>42</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>172</v>
@@ -4472,7 +4472,7 @@
         <v>44</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>172</v>
@@ -4495,7 +4495,7 @@
         <v>46</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>172</v>
@@ -4518,7 +4518,7 @@
         <v>48</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>172</v>
@@ -4541,7 +4541,7 @@
         <v>50</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>172</v>
@@ -4564,7 +4564,7 @@
         <v>52</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>172</v>
@@ -4587,7 +4587,7 @@
         <v>54</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>172</v>
@@ -4610,7 +4610,7 @@
         <v>56</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>172</v>
@@ -4633,7 +4633,7 @@
         <v>58</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>172</v>
@@ -4656,7 +4656,7 @@
         <v>60</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>172</v>
@@ -4679,7 +4679,7 @@
         <v>62</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>172</v>
@@ -4702,7 +4702,7 @@
         <v>64</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>172</v>
@@ -4725,7 +4725,7 @@
         <v>66</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>172</v>
@@ -4748,7 +4748,7 @@
         <v>68</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>172</v>
@@ -4771,7 +4771,7 @@
         <v>70</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>172</v>
@@ -4794,7 +4794,7 @@
         <v>72</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>172</v>
@@ -4817,7 +4817,7 @@
         <v>74</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>172</v>
@@ -4840,7 +4840,7 @@
         <v>76</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>172</v>
@@ -4863,7 +4863,7 @@
         <v>78</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>172</v>
@@ -4886,7 +4886,7 @@
         <v>80</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>172</v>
@@ -4909,7 +4909,7 @@
         <v>82</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>172</v>
@@ -4932,7 +4932,7 @@
         <v>84</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>172</v>
@@ -4955,7 +4955,7 @@
         <v>86</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>172</v>
@@ -4978,7 +4978,7 @@
         <v>88</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>172</v>
@@ -5001,7 +5001,7 @@
         <v>90</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>172</v>
@@ -5024,7 +5024,7 @@
         <v>92</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>172</v>
@@ -5047,7 +5047,7 @@
         <v>101</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>172</v>
@@ -5070,7 +5070,7 @@
         <v>176</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>177</v>
@@ -5093,7 +5093,7 @@
         <v>179</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>177</v>
@@ -5116,7 +5116,7 @@
         <v>181</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>28</v>
@@ -5139,7 +5139,7 @@
         <v>183</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>28</v>
@@ -5162,7 +5162,7 @@
         <v>185</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>159</v>
